--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_0_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_0_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.47000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.612394312766057e-05</v>
+        <v>0.002237984537107218</v>
       </c>
       <c r="I2" t="n">
-        <v>6.612394312766057e-05</v>
+        <v>0.002237984537107218</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>45.08039598158696</v>
+        <v>31.74929110404769</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[23.607206917127826, 66.5535850460461]</t>
+          <t>[12.090822891022398, 51.40775931707297]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0001137761768454926</v>
+        <v>0.002169831261413568</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001137761768454926</v>
+        <v>0.002169831261413568</v>
       </c>
       <c r="P2" t="n">
-        <v>1.603816069400194</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0000264903318854, 2.207605648468503]</t>
+          <t>[0.6100790538502707, 2.371131992799503]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.845477669044527e-06</v>
+        <v>0.00138275929135423</v>
       </c>
       <c r="S2" t="n">
-        <v>2.845477669044527e-06</v>
+        <v>0.00138275929135423</v>
       </c>
       <c r="T2" t="n">
-        <v>61.85365065164892</v>
+        <v>51.03560031276768</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.35347079055893, 75.35383051273891]</t>
+          <t>[38.645103004626876, 63.42609762090849]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.055156376305604e-12</v>
+        <v>1.283622097503212e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>6.055156376305604e-12</v>
+        <v>1.283622097503212e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>18.96864864864905</v>
+        <v>19.45045045045087</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.52108108108143</v>
+        <v>15.87687687687722</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.41621621621668</v>
+        <v>23.02402402402451</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.47000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.281513139914317e-05</v>
+        <v>0.0002238758091482884</v>
       </c>
       <c r="I3" t="n">
-        <v>4.281513139914317e-05</v>
+        <v>0.0002238758091482884</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.4642772483286</v>
+        <v>42.65051181276489</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[22.801419132154592, 74.1271353645026]</t>
+          <t>[17.46297186336875, 67.83805176216103]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0004272112808250128</v>
+        <v>0.001379034062938045</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004272112808250128</v>
+        <v>0.001379034062938045</v>
       </c>
       <c r="P3" t="n">
-        <v>1.037763339023655</v>
+        <v>0.8365001460008861</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.4842895582110387, 1.591237119836272]</t>
+          <t>[0.2956053147521924, 1.3773949772495797]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.003198950805758605</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.003198950805758605</v>
       </c>
       <c r="T3" t="n">
-        <v>60.85186583147535</v>
+        <v>59.49826231878323</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.12258529793084, 74.58114636501986]</t>
+          <t>[46.18383041311294, 72.81269422445351]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.606781374619004e-11</v>
+        <v>1.265321181165291e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.606781374619004e-11</v>
+        <v>1.265321181165291e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>21.2632432432437</v>
+        <v>22.10510510510558</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.01963963964004</v>
+        <v>19.90990990991034</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.50684684684735</v>
+        <v>24.30030030030082</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.47000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0004290777816005065</v>
+        <v>0.001245200791897383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004290777816005065</v>
+        <v>0.001245200791897383</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>41.91669497623991</v>
+        <v>39.62481618958988</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[15.569993658773328, 68.26339629370649]</t>
+          <t>[11.801580655064797, 67.44805172411496]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.002489251909075341</v>
+        <v>0.006259645968824445</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002489251909075341</v>
+        <v>0.006259645968824445</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8365001460008852</v>
+        <v>0.8113422468730391</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 1.402552876377424]</t>
+          <t>[0.20755266780472947, 1.4151318259413488]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.004680931924202492</v>
+        <v>0.009574520581582036</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004680931924202492</v>
+        <v>0.009574520581582036</v>
       </c>
       <c r="T4" t="n">
-        <v>60.03718808359446</v>
+        <v>57.01674193457248</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.30434645005183, 73.77002971713708]</t>
+          <t>[42.89491537978061, 71.13856848936435]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.39179787087096e-11</v>
+        <v>2.21713758463693e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.39179787087096e-11</v>
+        <v>2.21713758463693e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>22.07909909909957</v>
+        <v>22.20720720720768</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.78450450450493</v>
+        <v>19.75675675675718</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.37369369369421</v>
+        <v>24.65765765765819</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.47000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004140275780976088</v>
+        <v>0.0004500079366395182</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004140275780976088</v>
+        <v>0.0004500079366395182</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>41.31784096827099</v>
+        <v>44.75761502590244</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.773233156704478, 65.8624487798375]</t>
+          <t>[18.791428024632424, 70.72380202717245]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.00146156684995602</v>
+        <v>0.001153511162635956</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00146156684995602</v>
+        <v>0.001153511162635956</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4842895582110387</v>
+        <v>0.2704474156243464</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.16981581911296306, 1.1383949355350405]</t>
+          <t>[-0.40881586082750054, 0.9497106920761933]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1428833454029148</v>
+        <v>0.42681869967678</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1428833454029148</v>
+        <v>0.42681869967678</v>
       </c>
       <c r="T5" t="n">
-        <v>62.56750200027889</v>
+        <v>60.13695050485666</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.293048112544426, 75.84195588801336]</t>
+          <t>[45.73273431610967, 74.54116669360366]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.584377156722439e-12</v>
+        <v>8.82658390821689e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.584377156722439e-12</v>
+        <v>8.82658390821689e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>23.50684684684735</v>
+        <v>24.40240240240293</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.85531531531576</v>
+        <v>21.64564564564611</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.15837837837894</v>
+        <v>27.15915915915974</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.70000000000042</v>
+        <v>23.62000000000025</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02787961721101995</v>
+        <v>0.0004120544309185181</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02787961721101995</v>
+        <v>0.0004120544309185181</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>28.10664563437725</v>
+        <v>38.39477547769616</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[3.9667118469237366, 52.246579421830766]</t>
+          <t>[15.519110649950981, 61.27044030544135]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.02349385107988922</v>
+        <v>0.001504541485372268</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02349385107988922</v>
+        <v>0.001504541485372268</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04402632347373103</v>
+        <v>-0.3270526886620004</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.1132370364071935, 1.2012896833546556]</t>
+          <t>[-0.9937370155499243, 0.33963163822592346]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9392627300128287</v>
+        <v>0.3284109183708663</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9392627300128287</v>
+        <v>0.3284109183708663</v>
       </c>
       <c r="T6" t="n">
-        <v>54.35634575485854</v>
+        <v>49.26199165289445</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.20826972319075, 68.50442178652634]</t>
+          <t>[36.52223102543443, 62.001752280354474]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.313600918796737e-10</v>
+        <v>7.024181236658933e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>8.313600918796737e-10</v>
+        <v>7.024181236658933e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>24.52692692692735</v>
+        <v>1.229469469469485</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.97757757757792</v>
+        <v>-1.276756756756767</v>
       </c>
       <c r="Z6" t="n">
-        <v>29.07627627627677</v>
+        <v>3.735695695695738</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.70000000000042</v>
+        <v>23.62000000000025</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002711439410314265</v>
+        <v>0.001743283619344282</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002711439410314265</v>
+        <v>0.001743283619344282</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>34.93951550727512</v>
+        <v>43.11257375126961</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[11.66368921309494, 58.215341801455295]</t>
+          <t>[14.125306051362827, 72.0998414511764]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.004117673898412999</v>
+        <v>0.00444299820040106</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004117673898412999</v>
+        <v>0.00444299820040106</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1446579199851161</v>
+        <v>-0.4025263860455386</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.6918422260157708, 0.9811580659860031]</t>
+          <t>[-1.1446844103170015, 0.33963163822592435]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7292364324071781</v>
+        <v>0.28047346078603</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7292364324071781</v>
+        <v>0.28047346078603</v>
       </c>
       <c r="T7" t="n">
-        <v>57.7474382458432</v>
+        <v>68.23204226871624</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.411932785749784, 71.08294370593661]</t>
+          <t>[52.128376691134974, 84.33570784629751]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.144329241422383e-11</v>
+        <v>5.836509053835925e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.144329241422383e-11</v>
+        <v>5.836509053835925e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>24.13133133133174</v>
+        <v>1.513193193193207</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.84294294294329</v>
+        <v>-1.276756756756774</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.41971971972019</v>
+        <v>4.303143143143187</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.70000000000042</v>
+        <v>23.62000000000025</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.147226696587069e-06</v>
+        <v>0.004161298766825583</v>
       </c>
       <c r="I8" t="n">
-        <v>3.147226696587069e-06</v>
+        <v>0.004161298766825583</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.65502618542863</v>
+        <v>39.03229042898992</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.44805607323789, 76.86199629761937]</t>
+          <t>[11.296579206104497, 66.76800165187535]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.061226846776897e-05</v>
+        <v>0.006850898633663061</v>
       </c>
       <c r="O8" t="n">
-        <v>1.061226846776897e-05</v>
+        <v>0.006850898633663061</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1886842434588463</v>
+        <v>-0.1383684452031542</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.6541053773240009, 0.27673689040630833]</t>
+          <t>[-1.0755001877154253, 0.798763297309117]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4184996813159652</v>
+        <v>0.7675416092956775</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4184996813159652</v>
+        <v>0.7675416092956775</v>
       </c>
       <c r="T8" t="n">
-        <v>74.72919502943788</v>
+        <v>75.03515116432308</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[61.55825845927025, 87.9001315996055]</t>
+          <t>[59.140583319661005, 90.92971900898516]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>2.463806936248147e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>2.463806936248147e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7417417417417553</v>
+        <v>0.5201601601601666</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.087887887887906</v>
+        <v>-3.002742742742776</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.571371371371416</v>
+        <v>4.043063063063109</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_0_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_0_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.50000000000055</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002237984537107218</v>
+        <v>7.379714403632498e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002237984537107218</v>
+        <v>7.379714403632498e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>31.74929110404769</v>
+        <v>52.35978728190493</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[12.090822891022398, 51.40775931707297]</t>
+          <t>[22.462278685621754, 82.2572958781881]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.002169831261413568</v>
+        <v>0.0009793606384063125</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002169831261413568</v>
+        <v>0.0009793606384063125</v>
       </c>
       <c r="P2" t="n">
-        <v>1.490605523324887</v>
+        <v>2.06923720326535</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6100790538502707, 2.371131992799503]</t>
+          <t>[1.4780265737609648, 2.6604478327697345]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.00138275929135423</v>
+        <v>8.609838841877604e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00138275929135423</v>
+        <v>8.609838841877604e-09</v>
       </c>
       <c r="T2" t="n">
-        <v>51.03560031276768</v>
+        <v>70.64577366994894</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[38.645103004626876, 63.42609762090849]</t>
+          <t>[54.662135569443336, 86.62941177045454]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.283622097503212e-10</v>
+        <v>1.742983535280018e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.283622097503212e-10</v>
+        <v>1.742983535280018e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>19.45045045045087</v>
+        <v>17.43073073073115</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.87687687687722</v>
+        <v>14.98522522522559</v>
       </c>
       <c r="Z2" t="n">
-        <v>23.02402402402451</v>
+        <v>19.87623623623671</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.50000000000055</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002238758091482884</v>
+        <v>0.01186756347663709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002238758091482884</v>
+        <v>0.01186756347663709</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>42.65051181276489</v>
+        <v>26.36567277067048</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[17.46297186336875, 67.83805176216103]</t>
+          <t>[3.820753059506906, 48.91059248183405]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001379034062938045</v>
+        <v>0.02291968255608423</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001379034062938045</v>
+        <v>0.02291968255608423</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8365001460008861</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.2956053147521924, 1.3773949772495797]</t>
+          <t>[0.056605273037654946, 1.540921321580579]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.003198950805758605</v>
+        <v>0.03550863774323543</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003198950805758605</v>
+        <v>0.03550863774323543</v>
       </c>
       <c r="T3" t="n">
-        <v>59.49826231878323</v>
+        <v>54.14909043594476</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.18383041311294, 72.81269422445351]</t>
+          <t>[42.39354940609594, 65.90463146579357]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.265321181165291e-11</v>
+        <v>5.162537064506978e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.265321181165291e-11</v>
+        <v>5.162537064506978e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>22.10510510510558</v>
+        <v>22.68596596596651</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.90990990991034</v>
+        <v>19.61607607607655</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.30030030030082</v>
+        <v>25.75585585585647</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.50000000000055</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001245200791897383</v>
+        <v>0.01578337181201239</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001245200791897383</v>
+        <v>0.01578337181201239</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>39.62481618958988</v>
+        <v>31.41606001092795</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[11.801580655064797, 67.44805172411496]</t>
+          <t>[3.3627186115662155, 59.469401410289684]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.006259645968824445</v>
+        <v>0.02900933914862081</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006259645968824445</v>
+        <v>0.02900933914862081</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8113422468730391</v>
+        <v>0.9748685912040402</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.20755266780472947, 1.4151318259413488]</t>
+          <t>[-0.06918422260157708, 2.0189214050096576]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.009574520581582036</v>
+        <v>0.06650213572478325</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009574520581582036</v>
+        <v>0.06650213572478325</v>
       </c>
       <c r="T4" t="n">
-        <v>57.01674193457248</v>
+        <v>70.22533608509602</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.89491537978061, 71.13856848936435]</t>
+          <t>[55.489526382377335, 84.9611457878147]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.21713758463693e-10</v>
+        <v>1.847855202186111e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>2.21713758463693e-10</v>
+        <v>1.847855202186111e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>22.20720720720768</v>
+        <v>21.95751751751804</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.75675675675718</v>
+        <v>17.63885885885928</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.65765765765819</v>
+        <v>26.2761761761768</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.50000000000055</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004500079366395182</v>
+        <v>1.740087411405966e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004500079366395182</v>
+        <v>1.740087411405966e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>44.75761502590244</v>
+        <v>45.36547436435221</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[18.791428024632424, 70.72380202717245]</t>
+          <t>[24.955808831041594, 65.77513989766283]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001153511162635956</v>
+        <v>5.130617743742683e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001153511162635956</v>
+        <v>5.130617743742683e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2704474156243464</v>
+        <v>0.1320789704211922</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.40881586082750054, 0.9497106920761933]</t>
+          <t>[-0.3836579616996554, 0.6478159025420398]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.42681869967678</v>
+        <v>0.6085144062650203</v>
       </c>
       <c r="S5" t="n">
-        <v>0.42681869967678</v>
+        <v>0.6085144062650203</v>
       </c>
       <c r="T5" t="n">
-        <v>60.13695050485666</v>
+        <v>51.82260788866719</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.73273431610967, 74.54116669360366]</t>
+          <t>[40.13415211111729, 63.5110636662171]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.82658390821689e-11</v>
+        <v>1.592193044075429e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>8.82658390821689e-11</v>
+        <v>1.592193044075429e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>24.40240240240293</v>
+        <v>25.44366366366427</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.64564564564611</v>
+        <v>23.31035035035091</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.15915915915974</v>
+        <v>27.57697697697764</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.62000000000025</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0004120544309185181</v>
+        <v>0.0321045970414835</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004120544309185181</v>
+        <v>0.0321045970414835</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>38.39477547769616</v>
+        <v>29.62882591511971</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[15.519110649950981, 61.27044030544135]</t>
+          <t>[0.5476070506303614, 58.71004477960906]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001504541485372268</v>
+        <v>0.04601187295289466</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001504541485372268</v>
+        <v>0.04601187295289466</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3270526886620004</v>
+        <v>-0.4528421843012316</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.9937370155499243, 0.33963163822592346]</t>
+          <t>[-1.8553950606786564, 0.9497106920761933]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3284109183708663</v>
+        <v>0.518809086669735</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3284109183708663</v>
+        <v>0.518809086669735</v>
       </c>
       <c r="T6" t="n">
-        <v>49.26199165289445</v>
+        <v>55.28514193399142</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[36.52223102543443, 62.001752280354474]</t>
+          <t>[39.70718911886742, 70.86309474911542]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.024181236658933e-10</v>
+        <v>6.152083065202874e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>7.024181236658933e-10</v>
+        <v>6.152083065202874e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>1.229469469469485</v>
+        <v>1.691531531531549</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.276756756756767</v>
+        <v>-3.547517517517551</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.735695695695738</v>
+        <v>6.930580580580648</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.62000000000025</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001743283619344282</v>
+        <v>0.2066339034424634</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001743283619344282</v>
+        <v>0.2066339034424634</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>43.11257375126961</v>
+        <v>21.1106102001297</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[14.125306051362827, 72.0998414511764]</t>
+          <t>[-10.671344903660476, 52.89256530391988]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.00444299820040106</v>
+        <v>0.1876728444813773</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00444299820040106</v>
+        <v>0.1876728444813773</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.4025263860455386</v>
+        <v>-0.4402632347373086</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.1446844103170015, 0.33963163822592435]</t>
+          <t>[-3.566132201372198, 2.685605731897581]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.28047346078603</v>
+        <v>0.7779593916637979</v>
       </c>
       <c r="S7" t="n">
-        <v>0.28047346078603</v>
+        <v>0.7779593916637979</v>
       </c>
       <c r="T7" t="n">
-        <v>68.23204226871624</v>
+        <v>56.2849036563524</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[52.128376691134974, 84.33570784629751]</t>
+          <t>[39.53896529142575, 73.03084202127906]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.836509053835925e-11</v>
+        <v>2.239605900733466e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>5.836509053835925e-11</v>
+        <v>2.239605900733466e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>1.513193193193207</v>
+        <v>1.644544544544562</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.276756756756774</v>
+        <v>-10.03172172172182</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.303143143143187</v>
+        <v>13.32081081081094</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.62000000000025</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004161298766825583</v>
+        <v>0.01998011819116374</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004161298766825583</v>
+        <v>0.01998011819116374</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>39.03229042898992</v>
+        <v>25.1212467531027</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[11.296579206104497, 66.76800165187535]</t>
+          <t>[4.709181687030487, 45.53331181917491]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.006850898633663061</v>
+        <v>0.01699851100889882</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006850898633663061</v>
+        <v>0.01699851100889882</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1383684452031542</v>
+        <v>-0.006289474781961957</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.0755001877154253, 0.798763297309117]</t>
+          <t>[-1.0880791372793484, 1.0755001877154244]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7675416092956775</v>
+        <v>0.9907088241560207</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7675416092956775</v>
+        <v>0.9907088241560207</v>
       </c>
       <c r="T8" t="n">
-        <v>75.03515116432308</v>
+        <v>52.9035730535775</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[59.140583319661005, 90.92971900898516]</t>
+          <t>[40.54790415318949, 65.25924195396551]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.463806936248147e-12</v>
+        <v>4.338462922248709e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.463806936248147e-12</v>
+        <v>4.338462922248709e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5201601601601666</v>
+        <v>0.02349349349349339</v>
       </c>
       <c r="Y8" t="n">
-        <v>-3.002742742742776</v>
+        <v>-4.017387387387427</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.043063063063109</v>
+        <v>4.064374374374414</v>
       </c>
     </row>
   </sheetData>
